--- a/assets/ptc_master_sample.xlsx
+++ b/assets/ptc_master_sample.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="130" windowWidth="19100" windowHeight="7290"/>
+    <workbookView xWindow="75" yWindow="135" windowWidth="19095" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="PC Box 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PC Box 1'!$I$1:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PC Box 1'!$J$1:$J$8</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Test 72Hr with 15W UV A+B lamp and at the position of 20cm from sample</t>
   </si>
@@ -126,40 +131,76 @@
     <t>Part Code</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>ELREF004</t>
-  </si>
-  <si>
-    <t>ELREF008</t>
-  </si>
-  <si>
-    <t>ELREF007</t>
-  </si>
-  <si>
-    <t>ELREF009</t>
-  </si>
-  <si>
-    <t>PRREF002</t>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>EL Part 111</t>
+  </si>
+  <si>
+    <t>EL Part 112</t>
+  </si>
+  <si>
+    <t>EL Part 113</t>
+  </si>
+  <si>
+    <t>EL Part 114</t>
+  </si>
+  <si>
+    <t>EL Part 115</t>
+  </si>
+  <si>
+    <t>EL Part 116</t>
+  </si>
+  <si>
+    <t>EL Part 117</t>
+  </si>
+  <si>
+    <t>num1</t>
+  </si>
+  <si>
+    <t>num2</t>
+  </si>
+  <si>
+    <t>num3</t>
+  </si>
+  <si>
+    <t>num4</t>
+  </si>
+  <si>
+    <t>num5</t>
+  </si>
+  <si>
+    <t>num6</t>
+  </si>
+  <si>
+    <t>num76</t>
+  </si>
+  <si>
+    <t>ELP00111</t>
+  </si>
+  <si>
+    <t>ELP00112</t>
+  </si>
+  <si>
+    <t>ELP00113</t>
+  </si>
+  <si>
+    <t>ELP00114</t>
+  </si>
+  <si>
+    <t>ELP00115</t>
+  </si>
+  <si>
+    <t>ELP00116</t>
+  </si>
+  <si>
+    <t>ELP00117</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -240,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,12 +305,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,6 +314,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -324,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,9 +400,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,6 +435,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,25 +611,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="4" width="22.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="3"/>
+    <col min="2" max="5" width="22.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="37" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -594,226 +640,252 @@
         <v>25</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="90.75" customHeight="1">
+    <row r="2" spans="1:10" ht="90.75" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.5" customHeight="1">
+    <row r="3" spans="1:10" ht="28.5" customHeight="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>200</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="37.5">
+    <row r="4" spans="1:10" ht="38.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>100</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="25">
+    <row r="5" spans="1:10" ht="25.5">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="37.5">
+    <row r="6" spans="1:10" ht="38.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>10</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="25">
+    <row r="7" spans="1:10" ht="25.5">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>20</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75">
+    <row r="8" spans="1:10" ht="76.5">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>20</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C5:C6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
